--- a/spreadsheets/EMAC_ctx_graf7_MatriculacionSistemaEducativo.xlsx
+++ b/spreadsheets/EMAC_ctx_graf7_MatriculacionSistemaEducativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Code Projects\movilidad-src\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331A7205-00A4-4D81-9F85-752267236BC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A5220-8554-40ED-A7B1-EB3EC1DEB4C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
   <si>
     <t>cod_pais</t>
   </si>
@@ -105,6 +105,9 @@
   <si>
     <t>ve</t>
   </si>
+  <si>
+    <t>matricula_porcentaje</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -161,6 +164,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -183,7 +199,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,13 +218,19 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +453,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -837,22 +859,51 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="3"/>
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.99483747414228418</v>
+      </c>
+      <c r="E8" s="12">
+        <v>0.99440484908348803</v>
+      </c>
+      <c r="F8" s="12">
+        <v>0.99380556670332876</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0.99323746026266202</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0.99296117792926442</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0.99275046937961531</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.99250099288107507</v>
+      </c>
+      <c r="K8" s="12">
+        <v>0.99280688747399271</v>
+      </c>
+      <c r="L8" s="12">
+        <v>0.99231676589386297</v>
+      </c>
+      <c r="M8" s="12">
+        <v>0.99035640565962024</v>
+      </c>
+      <c r="N8" s="12">
+        <v>0.9845131528489709</v>
+      </c>
+      <c r="O8" s="12">
+        <v>0.98077814913725558</v>
+      </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -863,22 +914,51 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="3"/>
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2.1553783073992548E-3</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2.3447360403882145E-3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>2.55995485494274E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2.6627163077719762E-3</v>
+      </c>
+      <c r="H9" s="12">
+        <v>2.5878602796669749E-3</v>
+      </c>
+      <c r="I9" s="12">
+        <v>2.5013841358783669E-3</v>
+      </c>
+      <c r="J9" s="12">
+        <v>2.3312717996277397E-3</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1.947889110219532E-3</v>
+      </c>
+      <c r="L9" s="12">
+        <v>1.8493968313579049E-3</v>
+      </c>
+      <c r="M9" s="12">
+        <v>1.8499801364670544E-3</v>
+      </c>
+      <c r="N9" s="12">
+        <v>2.533906054644511E-3</v>
+      </c>
+      <c r="O9" s="12">
+        <v>2.7607452250718867E-3</v>
+      </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -889,22 +969,51 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="3"/>
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1.5945997586288246E-3</v>
+      </c>
+      <c r="E10" s="12">
+        <v>1.5984793867591599E-3</v>
+      </c>
+      <c r="F10" s="12">
+        <v>1.6872325961192966E-3</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1.7560397157611587E-3</v>
+      </c>
+      <c r="H10" s="12">
+        <v>1.7655167453265669E-3</v>
+      </c>
+      <c r="I10" s="12">
+        <v>1.8521408743678337E-3</v>
+      </c>
+      <c r="J10" s="12">
+        <v>2.0985551689669674E-3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>2.2527855905530541E-3</v>
+      </c>
+      <c r="L10" s="12">
+        <v>2.9200186799708686E-3</v>
+      </c>
+      <c r="M10" s="12">
+        <v>2.5716400616048974E-3</v>
+      </c>
+      <c r="N10" s="12">
+        <v>2.360773582208426E-3</v>
+      </c>
+      <c r="O10" s="12">
+        <v>1.9268666723680041E-3</v>
+      </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -915,22 +1024,51 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="3"/>
+      <c r="A11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1.1486089962429544E-3</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1.3820531306353613E-3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>1.6746770836329535E-3</v>
+      </c>
+      <c r="G11" s="12">
+        <v>2.0632848573771201E-3</v>
+      </c>
+      <c r="H11" s="12">
+        <v>2.4159356580875403E-3</v>
+      </c>
+      <c r="I11" s="12">
+        <v>2.6331361071881593E-3</v>
+      </c>
+      <c r="J11" s="12">
+        <v>2.8109662472293323E-3</v>
+      </c>
+      <c r="K11" s="12">
+        <v>2.7436318212403065E-3</v>
+      </c>
+      <c r="L11" s="12">
+        <v>2.6529721547532401E-3</v>
+      </c>
+      <c r="M11" s="12">
+        <v>2.5369878656952426E-3</v>
+      </c>
+      <c r="N11" s="12">
+        <v>2.5259641981107456E-3</v>
+      </c>
+      <c r="O11" s="12">
+        <v>1.8795872880568334E-3</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -941,22 +1079,51 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="3"/>
+      <c r="A12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2.6393879544475273E-4</v>
+      </c>
+      <c r="E12" s="12">
+        <v>2.6988235872923966E-4</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2.725687619762468E-4</v>
+      </c>
+      <c r="G12" s="12">
+        <v>2.8049885642773918E-4</v>
+      </c>
+      <c r="H12" s="12">
+        <v>2.6950938765449642E-4</v>
+      </c>
+      <c r="I12" s="12">
+        <v>2.6286950295035594E-4</v>
+      </c>
+      <c r="J12" s="12">
+        <v>2.5821390310085726E-4</v>
+      </c>
+      <c r="K12" s="12">
+        <v>2.4880600399442763E-4</v>
+      </c>
+      <c r="L12" s="12">
+        <v>2.6084644005503019E-4</v>
+      </c>
+      <c r="M12" s="12">
+        <v>2.7766469238575003E-4</v>
+      </c>
+      <c r="N12" s="12">
+        <v>3.6373702924645394E-4</v>
+      </c>
+      <c r="O12" s="12">
+        <v>3.7545393423576702E-4</v>
+      </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -967,22 +1134,51 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="3"/>
+      <c r="A13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="12">
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>0</v>
+      </c>
+      <c r="F13" s="12">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12">
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="12">
+        <v>0</v>
+      </c>
+      <c r="L13" s="12">
+        <v>0</v>
+      </c>
+      <c r="M13" s="12">
+        <v>2.407321584226857E-3</v>
+      </c>
+      <c r="N13" s="12">
+        <v>7.7024662868190145E-3</v>
+      </c>
+      <c r="O13" s="12">
+        <v>1.2279197743011979E-2</v>
+      </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1052,7 +1248,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="10"/>
+      <c r="H16" s="9"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1104,7 +1300,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="9"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>

--- a/spreadsheets/EMAC_ctx_graf7_MatriculacionSistemaEducativo.xlsx
+++ b/spreadsheets/EMAC_ctx_graf7_MatriculacionSistemaEducativo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Code Projects\movilidad-src\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{092A5220-8554-40ED-A7B1-EB3EC1DEB4C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900B0E68-6291-4FB5-B773-92591088D979}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>cod_pais</t>
   </si>
@@ -89,21 +89,6 @@
   </si>
   <si>
     <t>Venezuela</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>am</t>
-  </si>
-  <si>
-    <t>un</t>
-  </si>
-  <si>
-    <t>pe</t>
-  </si>
-  <si>
-    <t>ve</t>
   </si>
   <si>
     <t>matricula_porcentaje</t>
@@ -199,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -222,9 +207,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,7 +435,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A3" sqref="A3:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,8 +561,8 @@
       <c r="X2" s="3"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
+      <c r="A3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>17</v>
@@ -635,8 +617,8 @@
       <c r="X3" s="3"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>24</v>
+      <c r="A4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -691,8 +673,8 @@
       <c r="X4" s="3"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
+      <c r="A5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -747,8 +729,8 @@
       <c r="X5" s="3"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>26</v>
+      <c r="A6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>17</v>
@@ -803,8 +785,8 @@
       <c r="X6" s="3"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>27</v>
+      <c r="A7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>17</v>
@@ -859,49 +841,49 @@
       <c r="X7" s="3"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>0.99483747414228418</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>0.99440484908348803</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>0.99380556670332876</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="11">
         <v>0.99323746026266202</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="11">
         <v>0.99296117792926442</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.99275046937961531</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="11">
         <v>0.99250099288107507</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>0.99280688747399271</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>0.99231676589386297</v>
       </c>
-      <c r="M8" s="12">
+      <c r="M8" s="11">
         <v>0.99035640565962024</v>
       </c>
-      <c r="N8" s="12">
+      <c r="N8" s="11">
         <v>0.9845131528489709</v>
       </c>
-      <c r="O8" s="12">
+      <c r="O8" s="11">
         <v>0.98077814913725558</v>
       </c>
       <c r="Q8" s="3"/>
@@ -914,49 +896,49 @@
       <c r="X8" s="3"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="11">
         <v>2.1553783073992548E-3</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>2.3447360403882145E-3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>2.55995485494274E-3</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="11">
         <v>2.6627163077719762E-3</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="11">
         <v>2.5878602796669749E-3</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>2.5013841358783669E-3</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="11">
         <v>2.3312717996277397E-3</v>
       </c>
-      <c r="K9" s="12">
+      <c r="K9" s="11">
         <v>1.947889110219532E-3</v>
       </c>
-      <c r="L9" s="12">
+      <c r="L9" s="11">
         <v>1.8493968313579049E-3</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="11">
         <v>1.8499801364670544E-3</v>
       </c>
-      <c r="N9" s="12">
+      <c r="N9" s="11">
         <v>2.533906054644511E-3</v>
       </c>
-      <c r="O9" s="12">
+      <c r="O9" s="11">
         <v>2.7607452250718867E-3</v>
       </c>
       <c r="Q9" s="3"/>
@@ -969,49 +951,49 @@
       <c r="X9" s="3"/>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>24</v>
+      <c r="A10" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="11">
         <v>1.5945997586288246E-3</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>1.5984793867591599E-3</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>1.6872325961192966E-3</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="11">
         <v>1.7560397157611587E-3</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="11">
         <v>1.7655167453265669E-3</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>1.8521408743678337E-3</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>2.0985551689669674E-3</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>2.2527855905530541E-3</v>
       </c>
-      <c r="L10" s="12">
+      <c r="L10" s="11">
         <v>2.9200186799708686E-3</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11">
         <v>2.5716400616048974E-3</v>
       </c>
-      <c r="N10" s="12">
+      <c r="N10" s="11">
         <v>2.360773582208426E-3</v>
       </c>
-      <c r="O10" s="12">
+      <c r="O10" s="11">
         <v>1.9268666723680041E-3</v>
       </c>
       <c r="Q10" s="3"/>
@@ -1024,49 +1006,49 @@
       <c r="X10" s="3"/>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>25</v>
+      <c r="A11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="11">
         <v>1.1486089962429544E-3</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>1.3820531306353613E-3</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>1.6746770836329535E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>2.0632848573771201E-3</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="11">
         <v>2.4159356580875403E-3</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>2.6331361071881593E-3</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="11">
         <v>2.8109662472293323E-3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="11">
         <v>2.7436318212403065E-3</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="11">
         <v>2.6529721547532401E-3</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="11">
         <v>2.5369878656952426E-3</v>
       </c>
-      <c r="N11" s="12">
+      <c r="N11" s="11">
         <v>2.5259641981107456E-3</v>
       </c>
-      <c r="O11" s="12">
+      <c r="O11" s="11">
         <v>1.8795872880568334E-3</v>
       </c>
       <c r="Q11" s="3"/>
@@ -1079,49 +1061,49 @@
       <c r="X11" s="3"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A12" s="10" t="s">
-        <v>26</v>
+      <c r="A12" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>2.6393879544475273E-4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>2.6988235872923966E-4</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>2.725687619762468E-4</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>2.8049885642773918E-4</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="11">
         <v>2.6950938765449642E-4</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>2.6286950295035594E-4</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="11">
         <v>2.5821390310085726E-4</v>
       </c>
-      <c r="K12" s="12">
+      <c r="K12" s="11">
         <v>2.4880600399442763E-4</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="11">
         <v>2.6084644005503019E-4</v>
       </c>
-      <c r="M12" s="12">
+      <c r="M12" s="11">
         <v>2.7766469238575003E-4</v>
       </c>
-      <c r="N12" s="12">
+      <c r="N12" s="11">
         <v>3.6373702924645394E-4</v>
       </c>
-      <c r="O12" s="12">
+      <c r="O12" s="11">
         <v>3.7545393423576702E-4</v>
       </c>
       <c r="Q12" s="3"/>
@@ -1134,49 +1116,49 @@
       <c r="X12" s="3"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
-        <v>27</v>
+      <c r="A13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>0</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="11">
         <v>0</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="11">
         <v>0</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K13" s="11">
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>0</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="11">
         <v>2.407321584226857E-3</v>
       </c>
-      <c r="N13" s="12">
+      <c r="N13" s="11">
         <v>7.7024662868190145E-3</v>
       </c>
-      <c r="O13" s="12">
+      <c r="O13" s="11">
         <v>1.2279197743011979E-2</v>
       </c>
       <c r="Q13" s="3"/>
